--- a/other/ごいぱちステージ草案(ネタバレ注意（）).xlsx
+++ b/other/ごいぱちステージ草案(ネタバレ注意（）).xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sakos\Desktop\DDDDD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sakos\Desktop\DDDDD\other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8894429A-001C-44DE-9C42-02A4098DA381}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78A6AE47-A041-4077-882F-092A3A3E6A23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -434,10 +434,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>〇〇ず〇</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>〇〇〇いろ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -570,6 +566,10 @@
     <rPh sb="1" eb="2">
       <t>ケ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇〇ず</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -972,8 +972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:J520"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F95" sqref="F95"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1596,7 +1596,7 @@
         <v>1</v>
       </c>
       <c r="F31" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="G31">
         <v>180</v>
@@ -1686,7 +1686,7 @@
         <v>1</v>
       </c>
       <c r="F35" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G35">
         <v>150</v>
@@ -1706,7 +1706,7 @@
         <v>1</v>
       </c>
       <c r="F36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G36">
         <v>150</v>
@@ -1726,7 +1726,7 @@
         <v>1</v>
       </c>
       <c r="F37" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G37">
         <v>180</v>
@@ -1766,7 +1766,7 @@
         <v>1</v>
       </c>
       <c r="F39" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G39">
         <v>150</v>
@@ -1786,7 +1786,7 @@
         <v>1</v>
       </c>
       <c r="F40" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G40">
         <v>180</v>
@@ -1806,7 +1806,7 @@
         <v>1</v>
       </c>
       <c r="F41" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G41">
         <v>180</v>
@@ -2035,7 +2035,7 @@
         <v>1</v>
       </c>
       <c r="F67" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="68" spans="2:6">
@@ -2076,7 +2076,7 @@
         <v>1</v>
       </c>
       <c r="F71" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="72" spans="2:6">
@@ -2093,7 +2093,7 @@
         <v>1</v>
       </c>
       <c r="F72" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="73" spans="2:6">
@@ -2450,7 +2450,7 @@
         <v>1</v>
       </c>
       <c r="F110" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="111" spans="2:10">
@@ -2499,7 +2499,7 @@
         <v>1</v>
       </c>
       <c r="F115" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="116" spans="2:9">
@@ -3418,7 +3418,7 @@
         <v>1</v>
       </c>
       <c r="F214" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="215" spans="2:9">
@@ -3443,7 +3443,7 @@
         <v>1</v>
       </c>
       <c r="F216" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I216" t="s">
         <v>16</v>
@@ -3519,10 +3519,10 @@
         <v>1</v>
       </c>
       <c r="F224" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I224" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="225" spans="2:9">
@@ -3577,10 +3577,10 @@
         <v>1</v>
       </c>
       <c r="F229" t="s">
+        <v>77</v>
+      </c>
+      <c r="I229" t="s">
         <v>78</v>
-      </c>
-      <c r="I229" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="230" spans="2:9">
@@ -3597,7 +3597,7 @@
         <v>1</v>
       </c>
       <c r="F230" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="231" spans="2:9">
@@ -3758,7 +3758,7 @@
         <v>1</v>
       </c>
       <c r="F249" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="250" spans="2:6">
@@ -3837,7 +3837,7 @@
         <v>1</v>
       </c>
       <c r="F257" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="258" spans="2:9">
@@ -3854,7 +3854,7 @@
         <v>1</v>
       </c>
       <c r="I258" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="259" spans="2:9">
@@ -3943,10 +3943,10 @@
         <v>1</v>
       </c>
       <c r="F268" t="s">
+        <v>72</v>
+      </c>
+      <c r="I268" t="s">
         <v>73</v>
-      </c>
-      <c r="I268" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="269" spans="2:9">
@@ -4003,7 +4003,7 @@
         <v>1</v>
       </c>
       <c r="F274" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="275" spans="2:6">
@@ -4778,10 +4778,10 @@
         <v>1</v>
       </c>
       <c r="F364" t="s">
+        <v>79</v>
+      </c>
+      <c r="I364" t="s">
         <v>80</v>
-      </c>
-      <c r="I364" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="365" spans="2:9">
@@ -4822,7 +4822,7 @@
         <v>1</v>
       </c>
       <c r="F368" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="369" spans="2:6">
@@ -4863,7 +4863,7 @@
         <v>1</v>
       </c>
       <c r="F372" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="373" spans="2:6">
@@ -5022,7 +5022,7 @@
         <v>1</v>
       </c>
       <c r="F390" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="391" spans="2:9">
@@ -5104,7 +5104,7 @@
         <v>1</v>
       </c>
       <c r="F398" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="399" spans="2:9">
@@ -5733,7 +5733,7 @@
         <v>1</v>
       </c>
       <c r="F472" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="473" spans="2:6">

--- a/other/ごいぱちステージ草案(ネタバレ注意（）).xlsx
+++ b/other/ごいぱちステージ草案(ネタバレ注意（）).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sakos\Desktop\DDDDD\other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78A6AE47-A041-4077-882F-092A3A3E6A23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90D1B339-3B40-4283-86C1-68D27FA8756E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="97">
   <si>
     <t>モード</t>
     <phoneticPr fontId="1"/>
@@ -972,8 +972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:J520"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView tabSelected="1" topLeftCell="A220" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I229" sqref="I229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -3551,8 +3551,17 @@
       <c r="B227" s="5">
         <v>226</v>
       </c>
+      <c r="C227" t="s">
+        <v>12</v>
+      </c>
+      <c r="D227">
+        <v>5</v>
+      </c>
       <c r="E227" t="s">
         <v>1</v>
+      </c>
+      <c r="I227" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="228" spans="2:9">

--- a/other/ごいぱちステージ草案(ネタバレ注意（）).xlsx
+++ b/other/ごいぱちステージ草案(ネタバレ注意（）).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sakos\Desktop\DDDDD\other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90D1B339-3B40-4283-86C1-68D27FA8756E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E2489D3-74D5-466D-B986-7E83A08E817D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="152">
   <si>
     <t>モード</t>
     <phoneticPr fontId="1"/>
@@ -124,10 +124,6 @@
     <rPh sb="3" eb="5">
       <t>モジ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>かきくけこ</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -291,10 +287,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ぱぴぷぺぽ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>〇〇〇う</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -570,6 +562,258 @@
   </si>
   <si>
     <t>〇〇ず</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あお〇〇〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あか〇〇〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇〇ぱ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇〇もと</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>うち〇〇〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>か行</t>
+    <rPh sb="1" eb="2">
+      <t>ギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ぱ行</t>
+    <rPh sb="1" eb="2">
+      <t>ギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇〇え</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かん〇〇〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全消し</t>
+    <rPh sb="0" eb="1">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AA〇〇〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇〇っと</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇の〇〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇ぐ〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ぼ〇〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50音x2</t>
+    <rPh sb="2" eb="3">
+      <t>オン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50音x3</t>
+    <rPh sb="2" eb="3">
+      <t>オン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50音x4</t>
+    <rPh sb="2" eb="3">
+      <t>オン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>濁音</t>
+    <rPh sb="0" eb="2">
+      <t>ダクオン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇〇〇けん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇つ〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇〇ぼ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>る〇〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇〇とり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇んじ〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇ば〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇AA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>むし〇〇〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇しん〇〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇〇〇ち</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇っ〇〇〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇〇〇っ〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇づ〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇ざ〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇ん〇ん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇〇が〇〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇〇むし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇〇が</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇〇〇と</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇〇〇〇ご</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇〇げ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇〇〇〇げ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇わ〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇〇こつ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇な〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇〇いち</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇〇〇に</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇〇さん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇〇〇し</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇〇〇ご</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇く〇く</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇んとう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇んかい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>から〇〇〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>えん〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こう〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇〇わ〇</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -972,8 +1216,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:J520"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A220" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I229" sqref="I229"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1071,7 +1315,7 @@
         <v>200</v>
       </c>
       <c r="I5" t="s">
-        <v>13</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="2:10">
@@ -1079,7 +1323,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6">
         <v>3</v>
@@ -1111,7 +1355,7 @@
         <v>150</v>
       </c>
       <c r="I7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="2:10">
@@ -1119,7 +1363,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8">
         <v>3</v>
@@ -1128,7 +1372,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G8">
         <v>150</v>
@@ -1171,7 +1415,7 @@
         <v>150</v>
       </c>
       <c r="I10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="2:10">
@@ -1179,7 +1423,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11">
         <v>5</v>
@@ -1188,7 +1432,7 @@
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G11">
         <v>150</v>
@@ -1199,7 +1443,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D12">
         <v>3</v>
@@ -1208,7 +1452,7 @@
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G12">
         <v>150</v>
@@ -1219,7 +1463,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D13">
         <v>2</v>
@@ -1248,7 +1492,7 @@
         <v>120</v>
       </c>
       <c r="I14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="2:10">
@@ -1256,7 +1500,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D15" s="3">
         <v>3</v>
@@ -1265,7 +1509,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G15" s="3">
         <v>240</v>
@@ -1281,7 +1525,7 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D16">
         <v>3</v>
@@ -1290,7 +1534,7 @@
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G16">
         <v>180</v>
@@ -1304,7 +1548,7 @@
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D17">
         <v>3</v>
@@ -1313,7 +1557,7 @@
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G17">
         <v>180</v>
@@ -1324,7 +1568,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D18" s="3">
         <v>3</v>
@@ -1347,7 +1591,7 @@
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D19">
         <v>3</v>
@@ -1356,7 +1600,7 @@
         <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G19">
         <v>150</v>
@@ -1379,7 +1623,7 @@
         <v>150</v>
       </c>
       <c r="I20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="2:10">
@@ -1387,16 +1631,16 @@
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D21">
         <v>4</v>
       </c>
       <c r="E21" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G21">
         <v>120</v>
@@ -1407,7 +1651,7 @@
         <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D22">
         <v>4</v>
@@ -1416,7 +1660,7 @@
         <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G22">
         <v>120</v>
@@ -1427,7 +1671,7 @@
         <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D23">
         <v>4</v>
@@ -1436,7 +1680,7 @@
         <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G23">
         <v>150</v>
@@ -1447,7 +1691,7 @@
         <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D24">
         <v>3</v>
@@ -1456,7 +1700,7 @@
         <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G24">
         <v>150</v>
@@ -1467,7 +1711,7 @@
         <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D25">
         <v>2</v>
@@ -1479,7 +1723,7 @@
         <v>240</v>
       </c>
       <c r="I25" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="2:10">
@@ -1487,7 +1731,7 @@
         <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D26">
         <v>3</v>
@@ -1496,7 +1740,7 @@
         <v>1</v>
       </c>
       <c r="F26" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G26">
         <v>150</v>
@@ -1507,7 +1751,7 @@
         <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D27">
         <v>3</v>
@@ -1516,7 +1760,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G27">
         <v>180</v>
@@ -1527,7 +1771,7 @@
         <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D28">
         <v>4</v>
@@ -1536,7 +1780,7 @@
         <v>1</v>
       </c>
       <c r="F28" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G28">
         <v>180</v>
@@ -1547,7 +1791,7 @@
         <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D29">
         <v>3</v>
@@ -1556,7 +1800,7 @@
         <v>1</v>
       </c>
       <c r="F29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G29">
         <v>180</v>
@@ -1567,7 +1811,7 @@
         <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D30">
         <v>4</v>
@@ -1576,7 +1820,7 @@
         <v>1</v>
       </c>
       <c r="F30" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G30">
         <v>180</v>
@@ -1587,7 +1831,7 @@
         <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D31">
         <v>3</v>
@@ -1596,7 +1840,7 @@
         <v>1</v>
       </c>
       <c r="F31" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G31">
         <v>180</v>
@@ -1607,7 +1851,7 @@
         <v>31</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D32" s="3">
         <v>3</v>
@@ -1616,7 +1860,7 @@
         <v>1</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G32" s="3">
         <v>150</v>
@@ -1634,7 +1878,7 @@
         <v>32</v>
       </c>
       <c r="C33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D33">
         <v>5</v>
@@ -1643,13 +1887,13 @@
         <v>1</v>
       </c>
       <c r="F33" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G33">
         <v>150</v>
       </c>
       <c r="I33" t="s">
-        <v>13</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="2:9">
@@ -1657,7 +1901,7 @@
         <v>33</v>
       </c>
       <c r="C34" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D34">
         <v>5</v>
@@ -1666,7 +1910,7 @@
         <v>1</v>
       </c>
       <c r="F34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G34">
         <v>180</v>
@@ -1677,16 +1921,16 @@
         <v>34</v>
       </c>
       <c r="C35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D35">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E35" t="s">
         <v>1</v>
       </c>
       <c r="F35" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G35">
         <v>150</v>
@@ -1697,16 +1941,16 @@
         <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D36">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E36" t="s">
         <v>1</v>
       </c>
       <c r="F36" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G36">
         <v>150</v>
@@ -1717,7 +1961,7 @@
         <v>36</v>
       </c>
       <c r="C37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D37">
         <v>4</v>
@@ -1726,7 +1970,7 @@
         <v>1</v>
       </c>
       <c r="F37" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G37">
         <v>180</v>
@@ -1749,7 +1993,7 @@
         <v>120</v>
       </c>
       <c r="I38" t="s">
-        <v>37</v>
+        <v>101</v>
       </c>
     </row>
     <row r="39" spans="2:9">
@@ -1757,7 +2001,7 @@
         <v>38</v>
       </c>
       <c r="C39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D39">
         <v>4</v>
@@ -1766,7 +2010,7 @@
         <v>1</v>
       </c>
       <c r="F39" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G39">
         <v>150</v>
@@ -1777,7 +2021,7 @@
         <v>39</v>
       </c>
       <c r="C40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D40">
         <v>3</v>
@@ -1786,7 +2030,7 @@
         <v>1</v>
       </c>
       <c r="F40" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G40">
         <v>180</v>
@@ -1797,7 +2041,7 @@
         <v>40</v>
       </c>
       <c r="C41" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D41">
         <v>4</v>
@@ -1806,7 +2050,7 @@
         <v>1</v>
       </c>
       <c r="F41" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G41">
         <v>180</v>
@@ -1816,32 +2060,74 @@
       <c r="B42" s="5">
         <v>41</v>
       </c>
+      <c r="C42" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42">
+        <v>4</v>
+      </c>
       <c r="E42" t="s">
         <v>1</v>
+      </c>
+      <c r="F42" t="s">
+        <v>102</v>
+      </c>
+      <c r="G42">
+        <v>150</v>
       </c>
     </row>
     <row r="43" spans="2:9">
       <c r="B43" s="5">
         <v>42</v>
       </c>
+      <c r="C43" t="s">
+        <v>21</v>
+      </c>
+      <c r="D43">
+        <v>4</v>
+      </c>
       <c r="E43" t="s">
         <v>1</v>
+      </c>
+      <c r="F43" t="s">
+        <v>103</v>
+      </c>
+      <c r="G43">
+        <v>180</v>
       </c>
     </row>
     <row r="44" spans="2:9">
       <c r="B44" s="5">
         <v>43</v>
       </c>
+      <c r="C44" t="s">
+        <v>38</v>
+      </c>
+      <c r="D44">
+        <v>3</v>
+      </c>
       <c r="E44" t="s">
         <v>1</v>
+      </c>
+      <c r="F44" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="2:9">
       <c r="B45" s="5">
         <v>44</v>
       </c>
+      <c r="C45" t="s">
+        <v>21</v>
+      </c>
+      <c r="D45">
+        <v>3</v>
+      </c>
       <c r="E45" t="s">
         <v>1</v>
+      </c>
+      <c r="F45" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="46" spans="2:9">
@@ -1849,7 +2135,7 @@
         <v>45</v>
       </c>
       <c r="C46" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D46">
         <v>2</v>
@@ -1865,168 +2151,351 @@
       <c r="B47" s="5">
         <v>46</v>
       </c>
+      <c r="C47" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47">
+        <v>5</v>
+      </c>
       <c r="E47" t="s">
         <v>1</v>
+      </c>
+      <c r="F47" t="s">
+        <v>115</v>
+      </c>
+      <c r="G47">
+        <v>200</v>
       </c>
     </row>
     <row r="48" spans="2:9">
       <c r="B48" s="5">
         <v>47</v>
       </c>
+      <c r="C48" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48">
+        <v>5</v>
+      </c>
       <c r="E48" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="2:5">
+      <c r="F48" t="s">
+        <v>116</v>
+      </c>
+      <c r="G48">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9">
       <c r="B49" s="5">
         <v>48</v>
       </c>
+      <c r="C49" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49">
+        <v>5</v>
+      </c>
       <c r="E49" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:5">
+    <row r="50" spans="2:9">
       <c r="B50" s="5">
         <v>49</v>
       </c>
+      <c r="C50" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50">
+        <v>5</v>
+      </c>
       <c r="E50" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:5">
+    <row r="51" spans="2:9">
       <c r="B51" s="5">
         <v>50</v>
       </c>
+      <c r="C51" t="s">
+        <v>11</v>
+      </c>
+      <c r="D51">
+        <v>5</v>
+      </c>
       <c r="E51" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="2:5">
+      <c r="G51">
+        <v>300</v>
+      </c>
+      <c r="I51" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9">
       <c r="B52" s="5">
         <v>51</v>
       </c>
+      <c r="C52" t="s">
+        <v>21</v>
+      </c>
+      <c r="D52">
+        <v>3</v>
+      </c>
       <c r="E52" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="2:5">
+      <c r="F52" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9">
       <c r="B53" s="5">
         <v>52</v>
       </c>
+      <c r="C53" t="s">
+        <v>21</v>
+      </c>
+      <c r="D53">
+        <v>3</v>
+      </c>
       <c r="E53" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="2:5">
+      <c r="F53" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9">
       <c r="B54" s="5">
         <v>53</v>
       </c>
+      <c r="C54" t="s">
+        <v>17</v>
+      </c>
+      <c r="D54">
+        <v>4</v>
+      </c>
       <c r="E54" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="2:5">
+      <c r="F54" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9">
       <c r="B55" s="5">
         <v>54</v>
       </c>
+      <c r="C55" t="s">
+        <v>13</v>
+      </c>
+      <c r="D55">
+        <v>3</v>
+      </c>
       <c r="E55" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="2:5">
+      <c r="F55" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9">
       <c r="B56" s="5">
         <v>55</v>
       </c>
+      <c r="C56" t="s">
+        <v>17</v>
+      </c>
+      <c r="D56">
+        <v>5</v>
+      </c>
       <c r="E56" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="2:5">
+      <c r="F56" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9">
       <c r="B57" s="5">
         <v>56</v>
       </c>
+      <c r="C57" t="s">
+        <v>13</v>
+      </c>
+      <c r="D57">
+        <v>5</v>
+      </c>
       <c r="E57" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="2:5">
+      <c r="F57" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9">
       <c r="B58" s="5">
         <v>57</v>
       </c>
+      <c r="C58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D58">
+        <v>5</v>
+      </c>
       <c r="E58" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="2:5">
+      <c r="F58" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9">
       <c r="B59" s="5">
         <v>58</v>
       </c>
+      <c r="C59" t="s">
+        <v>13</v>
+      </c>
+      <c r="D59">
+        <v>5</v>
+      </c>
       <c r="E59" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="2:5">
+      <c r="F59" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9">
       <c r="B60" s="5">
         <v>59</v>
       </c>
+      <c r="C60" t="s">
+        <v>17</v>
+      </c>
+      <c r="D60">
+        <v>3</v>
+      </c>
       <c r="E60" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="2:5">
+      <c r="F60" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9">
       <c r="B61" s="5">
         <v>60</v>
       </c>
+      <c r="C61" t="s">
+        <v>13</v>
+      </c>
+      <c r="D61">
+        <v>5</v>
+      </c>
       <c r="E61" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="2:5">
+      <c r="F61" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9">
       <c r="B62" s="5">
         <v>61</v>
       </c>
+      <c r="C62" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62">
+        <v>4</v>
+      </c>
       <c r="E62" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="2:5">
+      <c r="I62" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9">
       <c r="B63" s="5">
         <v>62</v>
       </c>
+      <c r="C63" t="s">
+        <v>17</v>
+      </c>
+      <c r="D63">
+        <v>4</v>
+      </c>
       <c r="E63" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="2:5">
+      <c r="F63" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9">
       <c r="B64" s="5">
         <v>63</v>
       </c>
+      <c r="C64" t="s">
+        <v>17</v>
+      </c>
+      <c r="D64">
+        <v>4</v>
+      </c>
       <c r="E64" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="2:6">
+      <c r="F64" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9">
       <c r="B65" s="5">
         <v>64</v>
       </c>
+      <c r="C65" t="s">
+        <v>17</v>
+      </c>
+      <c r="D65">
+        <v>5</v>
+      </c>
       <c r="E65" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="2:6">
+      <c r="F65" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9">
       <c r="B66" s="5">
         <v>65</v>
       </c>
+      <c r="C66" t="s">
+        <v>17</v>
+      </c>
+      <c r="D66">
+        <v>5</v>
+      </c>
       <c r="E66" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="2:6">
+      <c r="F66" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9">
       <c r="B67" s="5">
         <v>66</v>
       </c>
       <c r="C67" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D67">
         <v>4</v>
@@ -2035,39 +2504,66 @@
         <v>1</v>
       </c>
       <c r="F67" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="68" spans="2:6">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9">
       <c r="B68" s="5">
         <v>67</v>
       </c>
+      <c r="C68" t="s">
+        <v>17</v>
+      </c>
+      <c r="D68">
+        <v>4</v>
+      </c>
       <c r="E68" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="2:6">
+      <c r="F68" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9">
       <c r="B69" s="5">
         <v>68</v>
       </c>
+      <c r="C69" t="s">
+        <v>13</v>
+      </c>
+      <c r="D69">
+        <v>5</v>
+      </c>
       <c r="E69" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="2:6">
+      <c r="F69" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9">
       <c r="B70" s="5">
         <v>69</v>
       </c>
+      <c r="C70" t="s">
+        <v>13</v>
+      </c>
+      <c r="D70">
+        <v>5</v>
+      </c>
       <c r="E70" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="2:6">
+      <c r="F70" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9">
       <c r="B71" s="5">
         <v>70</v>
       </c>
       <c r="C71" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D71">
         <v>4</v>
@@ -2076,15 +2572,15 @@
         <v>1</v>
       </c>
       <c r="F71" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="72" spans="2:6">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9">
       <c r="B72" s="5">
         <v>71</v>
       </c>
       <c r="C72" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D72">
         <v>4</v>
@@ -2093,109 +2589,214 @@
         <v>1</v>
       </c>
       <c r="F72" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="73" spans="2:6">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9">
       <c r="B73" s="5">
         <v>72</v>
       </c>
+      <c r="C73" t="s">
+        <v>17</v>
+      </c>
+      <c r="D73">
+        <v>8</v>
+      </c>
       <c r="E73" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="2:6">
+      <c r="F73" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9">
       <c r="B74" s="5">
         <v>73</v>
       </c>
+      <c r="C74" t="s">
+        <v>17</v>
+      </c>
+      <c r="D74">
+        <v>8</v>
+      </c>
       <c r="E74" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="2:6">
+      <c r="F74" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9">
       <c r="B75" s="5">
         <v>74</v>
       </c>
+      <c r="C75" t="s">
+        <v>13</v>
+      </c>
+      <c r="D75">
+        <v>8</v>
+      </c>
       <c r="E75" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="2:6">
+      <c r="F75" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9">
       <c r="B76" s="5">
         <v>75</v>
       </c>
+      <c r="C76" t="s">
+        <v>13</v>
+      </c>
+      <c r="D76">
+        <v>10</v>
+      </c>
       <c r="E76" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="2:6">
+      <c r="F76" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9">
       <c r="B77" s="5">
         <v>76</v>
       </c>
+      <c r="C77" t="s">
+        <v>13</v>
+      </c>
+      <c r="D77">
+        <v>4</v>
+      </c>
       <c r="E77" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="2:6">
+      <c r="F77" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9">
       <c r="B78" s="5">
         <v>77</v>
       </c>
       <c r="C78" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D78">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E78" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="2:6">
+      <c r="F78" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9">
       <c r="B79" s="5">
         <v>78</v>
       </c>
+      <c r="C79" t="s">
+        <v>11</v>
+      </c>
+      <c r="D79">
+        <v>5</v>
+      </c>
       <c r="E79" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="2:6">
+      <c r="I79" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9">
       <c r="B80" s="5">
         <v>79</v>
       </c>
+      <c r="C80" t="s">
+        <v>17</v>
+      </c>
+      <c r="D80">
+        <v>5</v>
+      </c>
       <c r="E80" t="s">
         <v>1</v>
+      </c>
+      <c r="F80" t="s">
+        <v>72</v>
+      </c>
+      <c r="I80" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="81" spans="2:10">
       <c r="B81" s="5">
         <v>80</v>
       </c>
+      <c r="C81" t="s">
+        <v>17</v>
+      </c>
+      <c r="D81">
+        <v>4</v>
+      </c>
       <c r="E81" t="s">
         <v>1</v>
+      </c>
+      <c r="F81" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="82" spans="2:10">
       <c r="B82" s="5">
         <v>81</v>
       </c>
+      <c r="C82" t="s">
+        <v>21</v>
+      </c>
+      <c r="D82">
+        <v>4</v>
+      </c>
       <c r="E82" t="s">
         <v>1</v>
+      </c>
+      <c r="F82" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="83" spans="2:10">
       <c r="B83" s="5">
         <v>82</v>
       </c>
+      <c r="C83" t="s">
+        <v>17</v>
+      </c>
+      <c r="D83">
+        <v>5</v>
+      </c>
       <c r="E83" t="s">
         <v>1</v>
+      </c>
+      <c r="F83" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="84" spans="2:10">
       <c r="B84" s="5">
         <v>83</v>
       </c>
+      <c r="C84" t="s">
+        <v>13</v>
+      </c>
+      <c r="D84">
+        <v>4</v>
+      </c>
       <c r="E84" t="s">
         <v>1</v>
+      </c>
+      <c r="F84" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="85" spans="2:10">
@@ -2203,7 +2804,7 @@
         <v>84</v>
       </c>
       <c r="C85" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D85">
         <v>4</v>
@@ -2216,48 +2817,105 @@
       <c r="B86" s="5">
         <v>85</v>
       </c>
+      <c r="C86" t="s">
+        <v>21</v>
+      </c>
+      <c r="D86">
+        <v>3</v>
+      </c>
       <c r="E86" t="s">
         <v>1</v>
+      </c>
+      <c r="F86" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="87" spans="2:10">
       <c r="B87" s="5">
         <v>86</v>
       </c>
+      <c r="C87" t="s">
+        <v>17</v>
+      </c>
+      <c r="D87">
+        <v>5</v>
+      </c>
       <c r="E87" t="s">
         <v>1</v>
+      </c>
+      <c r="F87" t="s">
+        <v>107</v>
+      </c>
+      <c r="G87">
+        <v>240</v>
       </c>
     </row>
     <row r="88" spans="2:10">
       <c r="B88" s="5">
         <v>87</v>
       </c>
+      <c r="C88" t="s">
+        <v>13</v>
+      </c>
+      <c r="D88">
+        <v>4</v>
+      </c>
       <c r="E88" t="s">
         <v>1</v>
+      </c>
+      <c r="F88" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="89" spans="2:10">
       <c r="B89" s="5">
         <v>88</v>
       </c>
+      <c r="C89" t="s">
+        <v>21</v>
+      </c>
+      <c r="D89">
+        <v>3</v>
+      </c>
       <c r="E89" t="s">
         <v>1</v>
+      </c>
+      <c r="F89" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="90" spans="2:10">
       <c r="B90" s="5">
         <v>89</v>
       </c>
+      <c r="C90" t="s">
+        <v>21</v>
+      </c>
+      <c r="D90">
+        <v>3</v>
+      </c>
       <c r="E90" t="s">
-        <v>1</v>
+        <v>50</v>
+      </c>
+      <c r="F90" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="91" spans="2:10">
       <c r="B91" s="5">
         <v>90</v>
       </c>
+      <c r="C91" t="s">
+        <v>17</v>
+      </c>
+      <c r="D91">
+        <v>4</v>
+      </c>
       <c r="E91" t="s">
         <v>1</v>
+      </c>
+      <c r="F91" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="92" spans="2:10">
@@ -2265,7 +2923,7 @@
         <v>91</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D92" s="3">
         <v>4</v>
@@ -2274,81 +2932,153 @@
         <v>1</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G92" s="3">
         <v>240</v>
       </c>
       <c r="H92" s="3"/>
       <c r="I92" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J92" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="93" spans="2:10">
       <c r="B93" s="5">
         <v>92</v>
       </c>
+      <c r="C93" t="s">
+        <v>21</v>
+      </c>
+      <c r="D93">
+        <v>3</v>
+      </c>
       <c r="E93" t="s">
         <v>1</v>
+      </c>
+      <c r="F93" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="94" spans="2:10">
       <c r="B94" s="5">
         <v>93</v>
       </c>
+      <c r="C94" t="s">
+        <v>17</v>
+      </c>
+      <c r="D94">
+        <v>4</v>
+      </c>
       <c r="E94" t="s">
         <v>1</v>
+      </c>
+      <c r="F94" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="95" spans="2:10">
       <c r="B95" s="5">
         <v>94</v>
       </c>
+      <c r="C95" t="s">
+        <v>13</v>
+      </c>
+      <c r="D95">
+        <v>4</v>
+      </c>
       <c r="E95" t="s">
         <v>1</v>
+      </c>
+      <c r="F95" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="96" spans="2:10">
       <c r="B96" s="5">
         <v>95</v>
       </c>
+      <c r="C96" t="s">
+        <v>12</v>
+      </c>
+      <c r="D96">
+        <v>4</v>
+      </c>
       <c r="E96" t="s">
         <v>1</v>
+      </c>
+      <c r="I96" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="97" spans="2:10">
       <c r="B97" s="5">
         <v>96</v>
       </c>
+      <c r="C97" t="s">
+        <v>13</v>
+      </c>
+      <c r="D97">
+        <v>5</v>
+      </c>
       <c r="E97" t="s">
         <v>1</v>
+      </c>
+      <c r="F97" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="98" spans="2:10">
       <c r="B98" s="5">
         <v>97</v>
       </c>
+      <c r="C98" t="s">
+        <v>17</v>
+      </c>
+      <c r="D98">
+        <v>4</v>
+      </c>
       <c r="E98" t="s">
         <v>1</v>
+      </c>
+      <c r="F98" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="99" spans="2:10">
       <c r="B99" s="5">
         <v>98</v>
       </c>
+      <c r="C99" t="s">
+        <v>17</v>
+      </c>
+      <c r="D99">
+        <v>4</v>
+      </c>
       <c r="E99" t="s">
         <v>1</v>
+      </c>
+      <c r="F99" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="100" spans="2:10">
       <c r="B100" s="5">
         <v>99</v>
       </c>
+      <c r="C100" t="s">
+        <v>17</v>
+      </c>
+      <c r="D100">
+        <v>4</v>
+      </c>
       <c r="E100" t="s">
         <v>1</v>
+      </c>
+      <c r="F100" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="101" spans="2:10">
@@ -2365,11 +3095,15 @@
         <v>1</v>
       </c>
       <c r="F101" s="8"/>
-      <c r="G101" s="8"/>
+      <c r="G101" s="8">
+        <v>500</v>
+      </c>
       <c r="H101" s="8"/>
-      <c r="I101" s="8"/>
+      <c r="I101" s="8" t="s">
+        <v>110</v>
+      </c>
       <c r="J101" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="102" spans="2:10">
@@ -2432,8 +3166,20 @@
       <c r="B109" s="5">
         <v>108</v>
       </c>
+      <c r="C109" t="s">
+        <v>21</v>
+      </c>
+      <c r="D109">
+        <v>4</v>
+      </c>
       <c r="E109" t="s">
         <v>1</v>
+      </c>
+      <c r="F109" t="s">
+        <v>99</v>
+      </c>
+      <c r="I109" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="110" spans="2:10">
@@ -2441,7 +3187,7 @@
         <v>109</v>
       </c>
       <c r="C110" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D110">
         <v>4</v>
@@ -2450,7 +3196,7 @@
         <v>1</v>
       </c>
       <c r="F110" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="111" spans="2:10">
@@ -2490,7 +3236,7 @@
         <v>114</v>
       </c>
       <c r="C115" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D115">
         <v>6</v>
@@ -2499,7 +3245,7 @@
         <v>1</v>
       </c>
       <c r="F115" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="116" spans="2:9">
@@ -2551,7 +3297,7 @@
         <v>150</v>
       </c>
       <c r="I120" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="121" spans="2:9">
@@ -2575,7 +3321,7 @@
         <v>122</v>
       </c>
       <c r="C123" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D123">
         <v>5</v>
@@ -2584,7 +3330,7 @@
         <v>1</v>
       </c>
       <c r="F123" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G123">
         <v>240</v>
@@ -2675,7 +3421,7 @@
         <v>133</v>
       </c>
       <c r="C134" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D134">
         <v>4</v>
@@ -2684,7 +3430,7 @@
         <v>1</v>
       </c>
       <c r="F134" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G134">
         <v>240</v>
@@ -2711,7 +3457,7 @@
         <v>136</v>
       </c>
       <c r="C137" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D137">
         <v>4</v>
@@ -2720,7 +3466,7 @@
         <v>1</v>
       </c>
       <c r="F137" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G137">
         <v>240</v>
@@ -2762,16 +3508,40 @@
       <c r="B142" s="5">
         <v>141</v>
       </c>
+      <c r="C142" t="s">
+        <v>21</v>
+      </c>
+      <c r="D142">
+        <v>4</v>
+      </c>
       <c r="E142" t="s">
-        <v>1</v>
+        <v>50</v>
+      </c>
+      <c r="F142" t="s">
+        <v>95</v>
+      </c>
+      <c r="G142">
+        <v>270</v>
       </c>
     </row>
     <row r="143" spans="2:7">
       <c r="B143" s="5">
         <v>142</v>
       </c>
+      <c r="C143" t="s">
+        <v>21</v>
+      </c>
+      <c r="D143">
+        <v>4</v>
+      </c>
       <c r="E143" t="s">
         <v>1</v>
+      </c>
+      <c r="F143" t="s">
+        <v>96</v>
+      </c>
+      <c r="G143">
+        <v>270</v>
       </c>
     </row>
     <row r="144" spans="2:7">
@@ -2787,7 +3557,7 @@
         <v>144</v>
       </c>
       <c r="C145" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D145">
         <v>4</v>
@@ -2796,7 +3566,7 @@
         <v>1</v>
       </c>
       <c r="F145" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G145">
         <v>240</v>
@@ -2855,7 +3625,7 @@
         <v>151</v>
       </c>
       <c r="C152" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D152">
         <v>5</v>
@@ -2864,7 +3634,7 @@
         <v>1</v>
       </c>
       <c r="F152" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G152">
         <v>240</v>
@@ -2883,7 +3653,7 @@
         <v>153</v>
       </c>
       <c r="C154" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D154">
         <v>3</v>
@@ -2969,7 +3739,7 @@
         <v>163</v>
       </c>
       <c r="C164" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D164">
         <v>5</v>
@@ -3151,7 +3921,7 @@
         <v>185</v>
       </c>
       <c r="C186" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D186">
         <v>5</v>
@@ -3160,7 +3930,7 @@
         <v>1</v>
       </c>
       <c r="F186" t="s">
-        <v>47</v>
+        <v>121</v>
       </c>
     </row>
     <row r="187" spans="2:6">
@@ -3207,6 +3977,12 @@
       <c r="B192" s="5">
         <v>191</v>
       </c>
+      <c r="C192" t="s">
+        <v>46</v>
+      </c>
+      <c r="D192">
+        <v>4</v>
+      </c>
       <c r="E192" t="s">
         <v>1</v>
       </c>
@@ -3263,12 +4039,6 @@
       <c r="B199" s="5">
         <v>198</v>
       </c>
-      <c r="C199" t="s">
-        <v>48</v>
-      </c>
-      <c r="D199">
-        <v>4</v>
-      </c>
       <c r="E199" t="s">
         <v>1</v>
       </c>
@@ -3297,9 +4067,11 @@
       <c r="F201" s="8"/>
       <c r="G201" s="8"/>
       <c r="H201" s="8"/>
-      <c r="I201" s="8"/>
+      <c r="I201" s="8" t="s">
+        <v>110</v>
+      </c>
       <c r="J201" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="202" spans="2:10">
@@ -3323,7 +4095,7 @@
         <v>203</v>
       </c>
       <c r="C204" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D204">
         <v>6</v>
@@ -3409,7 +4181,7 @@
         <v>213</v>
       </c>
       <c r="C214" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D214">
         <v>5</v>
@@ -3418,7 +4190,7 @@
         <v>1</v>
       </c>
       <c r="F214" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="215" spans="2:9">
@@ -3434,7 +4206,7 @@
         <v>215</v>
       </c>
       <c r="C216" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D216">
         <v>4</v>
@@ -3443,10 +4215,10 @@
         <v>1</v>
       </c>
       <c r="F216" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I216" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="217" spans="2:9">
@@ -3509,20 +4281,8 @@
       <c r="B224" s="5">
         <v>223</v>
       </c>
-      <c r="C224" t="s">
-        <v>18</v>
-      </c>
-      <c r="D224">
-        <v>5</v>
-      </c>
       <c r="E224" t="s">
         <v>1</v>
-      </c>
-      <c r="F224" t="s">
-        <v>74</v>
-      </c>
-      <c r="I224" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="225" spans="2:9">
@@ -3530,7 +4290,7 @@
         <v>224</v>
       </c>
       <c r="C225" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D225">
         <v>3</v>
@@ -3561,7 +4321,7 @@
         <v>1</v>
       </c>
       <c r="I227" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="228" spans="2:9">
@@ -3577,7 +4337,7 @@
         <v>228</v>
       </c>
       <c r="C229" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D229">
         <v>4</v>
@@ -3586,10 +4346,10 @@
         <v>1</v>
       </c>
       <c r="F229" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I229" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="230" spans="2:9">
@@ -3597,7 +4357,7 @@
         <v>229</v>
       </c>
       <c r="C230" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D230">
         <v>4</v>
@@ -3606,7 +4366,7 @@
         <v>1</v>
       </c>
       <c r="F230" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="231" spans="2:9">
@@ -3685,8 +4445,17 @@
       <c r="B240" s="5">
         <v>239</v>
       </c>
+      <c r="C240" t="s">
+        <v>21</v>
+      </c>
+      <c r="D240">
+        <v>3</v>
+      </c>
       <c r="E240" t="s">
         <v>1</v>
+      </c>
+      <c r="F240" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="241" spans="2:6">
@@ -3758,7 +4527,7 @@
         <v>248</v>
       </c>
       <c r="C249" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D249">
         <v>5</v>
@@ -3767,7 +4536,7 @@
         <v>1</v>
       </c>
       <c r="F249" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="250" spans="2:6">
@@ -3775,7 +4544,7 @@
         <v>249</v>
       </c>
       <c r="C250" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D250">
         <v>4</v>
@@ -3837,7 +4606,7 @@
         <v>256</v>
       </c>
       <c r="C257" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D257">
         <v>5</v>
@@ -3846,7 +4615,7 @@
         <v>1</v>
       </c>
       <c r="F257" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="258" spans="2:9">
@@ -3863,7 +4632,7 @@
         <v>1</v>
       </c>
       <c r="I258" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="259" spans="2:9">
@@ -3943,7 +4712,7 @@
         <v>267</v>
       </c>
       <c r="C268" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D268">
         <v>5</v>
@@ -3952,10 +4721,10 @@
         <v>1</v>
       </c>
       <c r="F268" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I268" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="269" spans="2:9">
@@ -4003,7 +4772,7 @@
         <v>273</v>
       </c>
       <c r="C274" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D274">
         <v>5</v>
@@ -4012,7 +4781,7 @@
         <v>1</v>
       </c>
       <c r="F274" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="275" spans="2:6">
@@ -4132,7 +4901,7 @@
         <v>288</v>
       </c>
       <c r="C289" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D289">
         <v>6</v>
@@ -4177,56 +4946,119 @@
       <c r="B294" s="5">
         <v>293</v>
       </c>
+      <c r="C294" t="s">
+        <v>11</v>
+      </c>
+      <c r="D294">
+        <v>7</v>
+      </c>
       <c r="E294" t="s">
         <v>1</v>
+      </c>
+      <c r="I294" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="295" spans="2:10">
       <c r="B295" s="5">
         <v>294</v>
       </c>
+      <c r="C295" t="s">
+        <v>11</v>
+      </c>
+      <c r="D295">
+        <v>7</v>
+      </c>
       <c r="E295" t="s">
         <v>1</v>
+      </c>
+      <c r="I295" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="296" spans="2:10">
       <c r="B296" s="5">
         <v>295</v>
       </c>
+      <c r="C296" t="s">
+        <v>11</v>
+      </c>
+      <c r="D296">
+        <v>7</v>
+      </c>
       <c r="E296" t="s">
         <v>1</v>
+      </c>
+      <c r="I296" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="297" spans="2:10">
       <c r="B297" s="5">
         <v>296</v>
       </c>
+      <c r="C297" t="s">
+        <v>11</v>
+      </c>
+      <c r="D297">
+        <v>7</v>
+      </c>
       <c r="E297" t="s">
         <v>1</v>
+      </c>
+      <c r="I297" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="298" spans="2:10">
       <c r="B298" s="5">
         <v>297</v>
       </c>
+      <c r="C298" t="s">
+        <v>11</v>
+      </c>
+      <c r="D298">
+        <v>7</v>
+      </c>
       <c r="E298" t="s">
         <v>1</v>
+      </c>
+      <c r="I298" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="299" spans="2:10">
       <c r="B299" s="5">
         <v>298</v>
       </c>
+      <c r="C299" t="s">
+        <v>11</v>
+      </c>
+      <c r="D299">
+        <v>7</v>
+      </c>
       <c r="E299" t="s">
         <v>1</v>
+      </c>
+      <c r="I299" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="300" spans="2:10">
       <c r="B300" s="5">
         <v>299</v>
       </c>
+      <c r="C300" t="s">
+        <v>11</v>
+      </c>
+      <c r="D300">
+        <v>7</v>
+      </c>
       <c r="E300" t="s">
         <v>1</v>
+      </c>
+      <c r="I300" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="301" spans="2:10">
@@ -4245,9 +5077,11 @@
       <c r="F301" s="8"/>
       <c r="G301" s="8"/>
       <c r="H301" s="8"/>
-      <c r="I301" s="8"/>
+      <c r="I301" s="8" t="s">
+        <v>111</v>
+      </c>
       <c r="J301" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="302" spans="2:10">
@@ -4274,7 +5108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="2:5">
+    <row r="305" spans="2:6">
       <c r="B305" s="5">
         <v>304</v>
       </c>
@@ -4282,7 +5116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="2:5">
+    <row r="306" spans="2:6">
       <c r="B306" s="5">
         <v>305</v>
       </c>
@@ -4290,7 +5124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="2:5">
+    <row r="307" spans="2:6">
       <c r="B307" s="5">
         <v>306</v>
       </c>
@@ -4298,7 +5132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="2:5">
+    <row r="308" spans="2:6">
       <c r="B308" s="5">
         <v>307</v>
       </c>
@@ -4306,7 +5140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="2:5">
+    <row r="309" spans="2:6">
       <c r="B309" s="5">
         <v>308</v>
       </c>
@@ -4314,7 +5148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="2:5">
+    <row r="310" spans="2:6">
       <c r="B310" s="5">
         <v>309</v>
       </c>
@@ -4322,7 +5156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="2:5">
+    <row r="311" spans="2:6">
       <c r="B311" s="5">
         <v>310</v>
       </c>
@@ -4330,7 +5164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="2:5">
+    <row r="312" spans="2:6">
       <c r="B312" s="5">
         <v>311</v>
       </c>
@@ -4338,12 +5172,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="2:5">
+    <row r="313" spans="2:6">
       <c r="B313" s="5">
         <v>312</v>
       </c>
       <c r="C313" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D313">
         <v>5</v>
@@ -4352,7 +5186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="2:5">
+    <row r="314" spans="2:6">
       <c r="B314" s="5">
         <v>313</v>
       </c>
@@ -4360,7 +5194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="2:5">
+    <row r="315" spans="2:6">
       <c r="B315" s="5">
         <v>314</v>
       </c>
@@ -4368,7 +5202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="2:5">
+    <row r="316" spans="2:6">
       <c r="B316" s="5">
         <v>315</v>
       </c>
@@ -4376,7 +5210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="2:5">
+    <row r="317" spans="2:6">
       <c r="B317" s="5">
         <v>316</v>
       </c>
@@ -4384,7 +5218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="2:5">
+    <row r="318" spans="2:6">
       <c r="B318" s="5">
         <v>317</v>
       </c>
@@ -4392,15 +5226,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="2:5">
+    <row r="319" spans="2:6">
       <c r="B319" s="5">
         <v>318</v>
       </c>
+      <c r="C319" t="s">
+        <v>41</v>
+      </c>
+      <c r="D319">
+        <v>4</v>
+      </c>
       <c r="E319" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="320" spans="2:5">
+      <c r="F319" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="320" spans="2:6">
       <c r="B320" s="5">
         <v>319</v>
       </c>
@@ -4445,7 +5288,7 @@
         <v>324</v>
       </c>
       <c r="C325" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D325">
         <v>5</v>
@@ -4454,7 +5297,7 @@
         <v>1</v>
       </c>
       <c r="F325" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="326" spans="2:6">
@@ -4526,7 +5369,7 @@
         <v>333</v>
       </c>
       <c r="C334" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D334">
         <v>8</v>
@@ -4676,7 +5519,7 @@
         <v>351</v>
       </c>
       <c r="C352" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D352">
         <v>4</v>
@@ -4778,7 +5621,7 @@
         <v>363</v>
       </c>
       <c r="C364" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D364">
         <v>5</v>
@@ -4787,10 +5630,10 @@
         <v>1</v>
       </c>
       <c r="F364" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I364" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="365" spans="2:9">
@@ -4822,7 +5665,7 @@
         <v>367</v>
       </c>
       <c r="C368" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D368">
         <v>5</v>
@@ -4831,10 +5674,10 @@
         <v>1</v>
       </c>
       <c r="F368" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="369" spans="2:6">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="369" spans="2:9">
       <c r="B369" s="5">
         <v>368</v>
       </c>
@@ -4842,7 +5685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="370" spans="2:6">
+    <row r="370" spans="2:9">
       <c r="B370" s="5">
         <v>369</v>
       </c>
@@ -4850,7 +5693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="2:6">
+    <row r="371" spans="2:9">
       <c r="B371" s="5">
         <v>370</v>
       </c>
@@ -4858,12 +5701,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="2:6">
+    <row r="372" spans="2:9">
       <c r="B372" s="5">
         <v>371</v>
       </c>
       <c r="C372" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D372">
         <v>5</v>
@@ -4872,10 +5715,10 @@
         <v>1</v>
       </c>
       <c r="F372" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="373" spans="2:6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="373" spans="2:9">
       <c r="B373" s="5">
         <v>372</v>
       </c>
@@ -4883,7 +5726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="2:6">
+    <row r="374" spans="2:9">
       <c r="B374" s="5">
         <v>373</v>
       </c>
@@ -4891,7 +5734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="2:6">
+    <row r="375" spans="2:9">
       <c r="B375" s="5">
         <v>374</v>
       </c>
@@ -4899,7 +5742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="2:6">
+    <row r="376" spans="2:9">
       <c r="B376" s="5">
         <v>375</v>
       </c>
@@ -4907,7 +5750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="2:6">
+    <row r="377" spans="2:9">
       <c r="B377" s="5">
         <v>376</v>
       </c>
@@ -4915,7 +5758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="2:6">
+    <row r="378" spans="2:9">
       <c r="B378" s="5">
         <v>377</v>
       </c>
@@ -4923,7 +5766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="2:6">
+    <row r="379" spans="2:9">
       <c r="B379" s="5">
         <v>378</v>
       </c>
@@ -4931,7 +5774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="2:6">
+    <row r="380" spans="2:9">
       <c r="B380" s="5">
         <v>379</v>
       </c>
@@ -4939,12 +5782,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="2:6">
+    <row r="381" spans="2:9">
       <c r="B381" s="5">
         <v>380</v>
       </c>
       <c r="C381" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D381">
         <v>5</v>
@@ -4953,7 +5796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="2:6">
+    <row r="382" spans="2:9">
       <c r="B382" s="5">
         <v>381</v>
       </c>
@@ -4961,60 +5804,123 @@
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="2:6">
+    <row r="383" spans="2:9">
       <c r="B383" s="5">
         <v>382</v>
       </c>
+      <c r="C383" t="s">
+        <v>12</v>
+      </c>
+      <c r="D383">
+        <v>6</v>
+      </c>
       <c r="E383" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="384" spans="2:6">
+      <c r="I383" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="384" spans="2:9">
       <c r="B384" s="5">
         <v>383</v>
       </c>
+      <c r="C384" t="s">
+        <v>12</v>
+      </c>
+      <c r="D384">
+        <v>6</v>
+      </c>
       <c r="E384" t="s">
         <v>1</v>
+      </c>
+      <c r="I384" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="385" spans="2:9">
       <c r="B385" s="5">
         <v>384</v>
       </c>
+      <c r="C385" t="s">
+        <v>12</v>
+      </c>
+      <c r="D385">
+        <v>6</v>
+      </c>
       <c r="E385" t="s">
         <v>1</v>
+      </c>
+      <c r="I385" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="386" spans="2:9">
       <c r="B386" s="5">
         <v>385</v>
       </c>
+      <c r="C386" t="s">
+        <v>12</v>
+      </c>
+      <c r="D386">
+        <v>6</v>
+      </c>
       <c r="E386" t="s">
         <v>1</v>
+      </c>
+      <c r="I386" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="387" spans="2:9">
       <c r="B387" s="5">
         <v>386</v>
       </c>
+      <c r="C387" t="s">
+        <v>12</v>
+      </c>
+      <c r="D387">
+        <v>6</v>
+      </c>
       <c r="E387" t="s">
         <v>1</v>
+      </c>
+      <c r="I387" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="388" spans="2:9">
       <c r="B388" s="5">
         <v>387</v>
       </c>
+      <c r="C388" t="s">
+        <v>12</v>
+      </c>
+      <c r="D388">
+        <v>6</v>
+      </c>
       <c r="E388" t="s">
         <v>1</v>
+      </c>
+      <c r="I388" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="389" spans="2:9">
       <c r="B389" s="5">
         <v>388</v>
       </c>
+      <c r="C389" t="s">
+        <v>12</v>
+      </c>
+      <c r="D389">
+        <v>6</v>
+      </c>
       <c r="E389" t="s">
         <v>1</v>
+      </c>
+      <c r="I389" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="390" spans="2:9">
@@ -5022,16 +5928,16 @@
         <v>389</v>
       </c>
       <c r="C390" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D390">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E390" t="s">
         <v>1</v>
       </c>
-      <c r="F390" t="s">
-        <v>87</v>
+      <c r="I390" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="391" spans="2:9">
@@ -5054,8 +5960,17 @@
       <c r="B393" s="5">
         <v>392</v>
       </c>
+      <c r="C393" t="s">
+        <v>21</v>
+      </c>
+      <c r="D393">
+        <v>5</v>
+      </c>
       <c r="E393" t="s">
         <v>1</v>
+      </c>
+      <c r="F393" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="394" spans="2:9">
@@ -5104,7 +6019,7 @@
         <v>397</v>
       </c>
       <c r="C398" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D398">
         <v>5</v>
@@ -5113,7 +6028,7 @@
         <v>1</v>
       </c>
       <c r="F398" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="399" spans="2:9">
@@ -5121,7 +6036,7 @@
         <v>398</v>
       </c>
       <c r="C399" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D399">
         <v>5</v>
@@ -5130,7 +6045,7 @@
         <v>1</v>
       </c>
       <c r="F399" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="400" spans="2:9">
@@ -5146,7 +6061,7 @@
         <v>400</v>
       </c>
       <c r="C401" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D401" s="8">
         <v>10</v>
@@ -5157,9 +6072,11 @@
       <c r="F401" s="8"/>
       <c r="G401" s="8"/>
       <c r="H401" s="8"/>
-      <c r="I401" s="8"/>
+      <c r="I401" s="8" t="s">
+        <v>112</v>
+      </c>
       <c r="J401" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="402" spans="2:10">
@@ -5487,7 +6404,7 @@
         <v>441</v>
       </c>
       <c r="C442" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D442">
         <v>5</v>
@@ -5733,7 +6650,7 @@
         <v>471</v>
       </c>
       <c r="C472" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D472">
         <v>5</v>
@@ -5742,7 +6659,7 @@
         <v>1</v>
       </c>
       <c r="F472" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="473" spans="2:6">
@@ -5750,7 +6667,7 @@
         <v>472</v>
       </c>
       <c r="C473" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D473">
         <v>7</v>
@@ -5815,7 +6732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="481" spans="2:5">
+    <row r="481" spans="2:9">
       <c r="B481" s="5">
         <v>480</v>
       </c>
@@ -5823,7 +6740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="482" spans="2:5">
+    <row r="482" spans="2:9">
       <c r="B482" s="5">
         <v>481</v>
       </c>
@@ -5831,7 +6748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="483" spans="2:5">
+    <row r="483" spans="2:9">
       <c r="B483" s="5">
         <v>482</v>
       </c>
@@ -5839,7 +6756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="484" spans="2:5">
+    <row r="484" spans="2:9">
       <c r="B484" s="5">
         <v>483</v>
       </c>
@@ -5847,7 +6764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="485" spans="2:5">
+    <row r="485" spans="2:9">
       <c r="B485" s="5">
         <v>484</v>
       </c>
@@ -5855,7 +6772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="486" spans="2:5">
+    <row r="486" spans="2:9">
       <c r="B486" s="5">
         <v>485</v>
       </c>
@@ -5863,7 +6780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="487" spans="2:5">
+    <row r="487" spans="2:9">
       <c r="B487" s="5">
         <v>486</v>
       </c>
@@ -5871,7 +6788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="488" spans="2:5">
+    <row r="488" spans="2:9">
       <c r="B488" s="5">
         <v>487</v>
       </c>
@@ -5879,7 +6796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="489" spans="2:5">
+    <row r="489" spans="2:9">
       <c r="B489" s="5">
         <v>488</v>
       </c>
@@ -5887,7 +6804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="490" spans="2:5">
+    <row r="490" spans="2:9">
       <c r="B490" s="5">
         <v>489</v>
       </c>
@@ -5895,7 +6812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="491" spans="2:5">
+    <row r="491" spans="2:9">
       <c r="B491" s="5">
         <v>490</v>
       </c>
@@ -5903,76 +6820,157 @@
         <v>1</v>
       </c>
     </row>
-    <row r="492" spans="2:5">
+    <row r="492" spans="2:9">
       <c r="B492" s="5">
         <v>491</v>
       </c>
+      <c r="C492" t="s">
+        <v>31</v>
+      </c>
+      <c r="D492">
+        <v>6</v>
+      </c>
       <c r="E492" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="493" spans="2:5">
+      <c r="I492" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="493" spans="2:9">
       <c r="B493" s="5">
         <v>492</v>
       </c>
+      <c r="C493" t="s">
+        <v>31</v>
+      </c>
+      <c r="D493">
+        <v>6</v>
+      </c>
       <c r="E493" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="494" spans="2:5">
+      <c r="I493" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="494" spans="2:9">
       <c r="B494" s="5">
         <v>493</v>
       </c>
+      <c r="C494" t="s">
+        <v>31</v>
+      </c>
+      <c r="D494">
+        <v>6</v>
+      </c>
       <c r="E494" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="495" spans="2:5">
+      <c r="I494" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="495" spans="2:9">
       <c r="B495" s="5">
         <v>494</v>
       </c>
+      <c r="C495" t="s">
+        <v>31</v>
+      </c>
+      <c r="D495">
+        <v>6</v>
+      </c>
       <c r="E495" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="496" spans="2:5">
+      <c r="I495" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="496" spans="2:9">
       <c r="B496" s="5">
         <v>495</v>
       </c>
+      <c r="C496" t="s">
+        <v>31</v>
+      </c>
+      <c r="D496">
+        <v>6</v>
+      </c>
       <c r="E496" t="s">
         <v>1</v>
+      </c>
+      <c r="I496" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="497" spans="2:10">
       <c r="B497" s="5">
         <v>496</v>
       </c>
+      <c r="C497" t="s">
+        <v>31</v>
+      </c>
+      <c r="D497">
+        <v>6</v>
+      </c>
       <c r="E497" t="s">
         <v>1</v>
+      </c>
+      <c r="I497" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="498" spans="2:10">
       <c r="B498" s="5">
         <v>497</v>
       </c>
+      <c r="C498" t="s">
+        <v>31</v>
+      </c>
+      <c r="D498">
+        <v>6</v>
+      </c>
       <c r="E498" t="s">
         <v>1</v>
+      </c>
+      <c r="I498" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="499" spans="2:10">
       <c r="B499" s="5">
         <v>498</v>
       </c>
+      <c r="C499" t="s">
+        <v>31</v>
+      </c>
+      <c r="D499">
+        <v>6</v>
+      </c>
       <c r="E499" t="s">
         <v>1</v>
+      </c>
+      <c r="I499" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="500" spans="2:10">
       <c r="B500" s="5">
         <v>499</v>
       </c>
+      <c r="C500" t="s">
+        <v>31</v>
+      </c>
+      <c r="D500">
+        <v>6</v>
+      </c>
       <c r="E500" t="s">
         <v>1</v>
+      </c>
+      <c r="I500" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="501" spans="2:10">
@@ -5991,9 +6989,11 @@
       <c r="F501" s="8"/>
       <c r="G501" s="8"/>
       <c r="H501" s="8"/>
-      <c r="I501" s="8"/>
+      <c r="I501" s="8" t="s">
+        <v>112</v>
+      </c>
       <c r="J501" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="502" spans="2:10">
@@ -6010,7 +7010,7 @@
       <c r="H502" s="10"/>
       <c r="I502" s="10"/>
       <c r="J502" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="503" spans="2:10">
@@ -6027,7 +7027,7 @@
       <c r="H503" s="10"/>
       <c r="I503" s="10"/>
       <c r="J503" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="504" spans="2:10">
@@ -6044,7 +7044,7 @@
       <c r="H504" s="10"/>
       <c r="I504" s="10"/>
       <c r="J504" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="505" spans="2:10">
@@ -6061,7 +7061,7 @@
       <c r="H505" s="10"/>
       <c r="I505" s="10"/>
       <c r="J505" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="506" spans="2:10">
@@ -6069,7 +7069,7 @@
         <v>505</v>
       </c>
       <c r="C506" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D506" s="10">
         <v>10</v>
@@ -6082,7 +7082,7 @@
       <c r="H506" s="10"/>
       <c r="I506" s="10"/>
       <c r="J506" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="507" spans="2:10">
@@ -6099,7 +7099,7 @@
       <c r="H507" s="10"/>
       <c r="I507" s="10"/>
       <c r="J507" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="508" spans="2:10">
@@ -6116,7 +7116,7 @@
       <c r="H508" s="10"/>
       <c r="I508" s="10"/>
       <c r="J508" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="509" spans="2:10">
@@ -6133,7 +7133,7 @@
       <c r="H509" s="10"/>
       <c r="I509" s="10"/>
       <c r="J509" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="510" spans="2:10">
@@ -6150,7 +7150,7 @@
       <c r="H510" s="10"/>
       <c r="I510" s="10"/>
       <c r="J510" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="511" spans="2:10">
@@ -6167,7 +7167,7 @@
       <c r="H511" s="10"/>
       <c r="I511" s="10"/>
       <c r="J511" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="512" spans="2:10">
@@ -6184,7 +7184,7 @@
       <c r="H512" s="10"/>
       <c r="I512" s="10"/>
       <c r="J512" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="513" spans="2:10">
@@ -6192,7 +7192,7 @@
         <v>512</v>
       </c>
       <c r="C513" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D513" s="10">
         <v>8</v>
@@ -6205,7 +7205,7 @@
       <c r="H513" s="10"/>
       <c r="I513" s="10"/>
       <c r="J513" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="514" spans="2:10">
@@ -6222,7 +7222,7 @@
       <c r="H514" s="10"/>
       <c r="I514" s="10"/>
       <c r="J514" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="515" spans="2:10">
@@ -6239,7 +7239,7 @@
       <c r="H515" s="10"/>
       <c r="I515" s="10"/>
       <c r="J515" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="516" spans="2:10">
@@ -6256,7 +7256,7 @@
       <c r="H516" s="10"/>
       <c r="I516" s="10"/>
       <c r="J516" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="517" spans="2:10">
@@ -6273,7 +7273,7 @@
       <c r="H517" s="10"/>
       <c r="I517" s="10"/>
       <c r="J517" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="518" spans="2:10">
@@ -6290,7 +7290,7 @@
       <c r="H518" s="10"/>
       <c r="I518" s="10"/>
       <c r="J518" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="519" spans="2:10">
@@ -6298,7 +7298,7 @@
         <v>518</v>
       </c>
       <c r="C519" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D519" s="8">
         <v>15</v>
@@ -6311,14 +7311,16 @@
         <v>900</v>
       </c>
       <c r="H519" s="8"/>
-      <c r="I519" s="8"/>
+      <c r="I519" s="8" t="s">
+        <v>112</v>
+      </c>
       <c r="J519" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="520" spans="2:10">
       <c r="B520" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C520" t="s">
         <v>0</v>
@@ -6335,7 +7337,7 @@
         <v>4</v>
       </c>
       <c r="I520" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J520" t="s">
         <v>5</v>

--- a/other/ごいぱちステージ草案(ネタバレ注意（）).xlsx
+++ b/other/ごいぱちステージ草案(ネタバレ注意（）).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sakos\Desktop\DDDDD\other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E2489D3-74D5-466D-B986-7E83A08E817D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{280D7221-28F8-467F-8C53-66EFB52F85F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2196" yWindow="3228" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="155">
   <si>
     <t>モード</t>
     <phoneticPr fontId="1"/>
@@ -535,10 +535,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>か〇〇か</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>さか〇〇</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -665,18 +661,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>〇〇〇けん</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>〇つ〇</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>〇〇ぼ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>る〇〇</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -814,6 +802,33 @@
   </si>
   <si>
     <t>〇〇わ〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇〇〇かん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A〇〇A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇〇ぼ〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇〇さき</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>もの〇〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50音x１</t>
+    <rPh sb="2" eb="3">
+      <t>オン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1216,8 +1231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:J520"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D79" sqref="D79"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1315,7 +1330,7 @@
         <v>200</v>
       </c>
       <c r="I5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="2:10">
@@ -1840,7 +1855,7 @@
         <v>1</v>
       </c>
       <c r="F31" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G31">
         <v>180</v>
@@ -1893,7 +1908,7 @@
         <v>150</v>
       </c>
       <c r="I33" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34" spans="2:9">
@@ -1993,7 +2008,7 @@
         <v>120</v>
       </c>
       <c r="I38" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="2:9">
@@ -2030,7 +2045,7 @@
         <v>1</v>
       </c>
       <c r="F40" t="s">
-        <v>89</v>
+        <v>150</v>
       </c>
       <c r="G40">
         <v>180</v>
@@ -2050,7 +2065,7 @@
         <v>1</v>
       </c>
       <c r="F41" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G41">
         <v>180</v>
@@ -2070,7 +2085,7 @@
         <v>1</v>
       </c>
       <c r="F42" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G42">
         <v>150</v>
@@ -2090,7 +2105,7 @@
         <v>1</v>
       </c>
       <c r="F43" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G43">
         <v>180</v>
@@ -2127,7 +2142,7 @@
         <v>1</v>
       </c>
       <c r="F45" t="s">
-        <v>114</v>
+        <v>149</v>
       </c>
     </row>
     <row r="46" spans="2:9">
@@ -2161,7 +2176,7 @@
         <v>1</v>
       </c>
       <c r="F47" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G47">
         <v>200</v>
@@ -2172,16 +2187,16 @@
         <v>47</v>
       </c>
       <c r="C48" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D48">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E48" t="s">
         <v>1</v>
       </c>
       <c r="F48" t="s">
-        <v>116</v>
+        <v>151</v>
       </c>
       <c r="G48">
         <v>200</v>
@@ -2192,13 +2207,16 @@
         <v>48</v>
       </c>
       <c r="C49" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D49">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E49" t="s">
         <v>1</v>
+      </c>
+      <c r="F49" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="50" spans="2:9">
@@ -2214,6 +2232,9 @@
       <c r="E50" t="s">
         <v>1</v>
       </c>
+      <c r="F50" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="51" spans="2:9">
       <c r="B51" s="5">
@@ -2223,7 +2244,7 @@
         <v>11</v>
       </c>
       <c r="D51">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E51" t="s">
         <v>1</v>
@@ -2232,7 +2253,7 @@
         <v>300</v>
       </c>
       <c r="I51" t="s">
-        <v>110</v>
+        <v>154</v>
       </c>
     </row>
     <row r="52" spans="2:9">
@@ -2249,7 +2270,7 @@
         <v>1</v>
       </c>
       <c r="F52" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="53" spans="2:9">
@@ -2266,7 +2287,7 @@
         <v>1</v>
       </c>
       <c r="F53" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="54" spans="2:9">
@@ -2283,7 +2304,7 @@
         <v>1</v>
       </c>
       <c r="F54" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="55" spans="2:9">
@@ -2300,7 +2321,7 @@
         <v>1</v>
       </c>
       <c r="F55" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="56" spans="2:9">
@@ -2317,7 +2338,7 @@
         <v>1</v>
       </c>
       <c r="F56" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="57" spans="2:9">
@@ -2334,7 +2355,7 @@
         <v>1</v>
       </c>
       <c r="F57" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="58" spans="2:9">
@@ -2368,7 +2389,7 @@
         <v>1</v>
       </c>
       <c r="F59" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="60" spans="2:9">
@@ -2385,7 +2406,7 @@
         <v>1</v>
       </c>
       <c r="F60" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="61" spans="2:9">
@@ -2402,7 +2423,7 @@
         <v>1</v>
       </c>
       <c r="F61" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="62" spans="2:9">
@@ -2419,7 +2440,7 @@
         <v>1</v>
       </c>
       <c r="I62" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="63" spans="2:9">
@@ -2436,7 +2457,7 @@
         <v>1</v>
       </c>
       <c r="F63" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="64" spans="2:9">
@@ -2453,7 +2474,7 @@
         <v>1</v>
       </c>
       <c r="F64" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="65" spans="2:9">
@@ -2470,7 +2491,7 @@
         <v>1</v>
       </c>
       <c r="F65" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="66" spans="2:9">
@@ -2487,7 +2508,7 @@
         <v>1</v>
       </c>
       <c r="F66" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="67" spans="2:9">
@@ -2504,7 +2525,7 @@
         <v>1</v>
       </c>
       <c r="F67" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="68" spans="2:9">
@@ -2538,7 +2559,7 @@
         <v>1</v>
       </c>
       <c r="F69" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="70" spans="2:9">
@@ -2555,7 +2576,7 @@
         <v>1</v>
       </c>
       <c r="F70" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="71" spans="2:9">
@@ -2606,7 +2627,7 @@
         <v>1</v>
       </c>
       <c r="F73" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="74" spans="2:9">
@@ -2623,7 +2644,7 @@
         <v>1</v>
       </c>
       <c r="F74" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="75" spans="2:9">
@@ -2640,7 +2661,7 @@
         <v>1</v>
       </c>
       <c r="F75" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="76" spans="2:9">
@@ -2657,7 +2678,7 @@
         <v>1</v>
       </c>
       <c r="F76" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="77" spans="2:9">
@@ -2674,7 +2695,7 @@
         <v>1</v>
       </c>
       <c r="F77" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="78" spans="2:9">
@@ -2691,7 +2712,7 @@
         <v>1</v>
       </c>
       <c r="F78" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="79" spans="2:9">
@@ -2708,7 +2729,7 @@
         <v>1</v>
       </c>
       <c r="I79" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="80" spans="2:9">
@@ -2745,7 +2766,7 @@
         <v>1</v>
       </c>
       <c r="F81" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="82" spans="2:10">
@@ -2762,7 +2783,7 @@
         <v>1</v>
       </c>
       <c r="F82" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="83" spans="2:10">
@@ -2779,7 +2800,7 @@
         <v>1</v>
       </c>
       <c r="F83" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="84" spans="2:10">
@@ -2796,7 +2817,7 @@
         <v>1</v>
       </c>
       <c r="F84" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="85" spans="2:10">
@@ -2827,7 +2848,7 @@
         <v>1</v>
       </c>
       <c r="F86" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="87" spans="2:10">
@@ -2844,7 +2865,7 @@
         <v>1</v>
       </c>
       <c r="F87" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G87">
         <v>240</v>
@@ -2864,7 +2885,7 @@
         <v>1</v>
       </c>
       <c r="F88" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="89" spans="2:10">
@@ -2881,7 +2902,7 @@
         <v>1</v>
       </c>
       <c r="F89" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="90" spans="2:10">
@@ -2898,7 +2919,7 @@
         <v>50</v>
       </c>
       <c r="F90" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="91" spans="2:10">
@@ -2915,7 +2936,7 @@
         <v>1</v>
       </c>
       <c r="F91" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="92" spans="2:10">
@@ -2959,7 +2980,7 @@
         <v>1</v>
       </c>
       <c r="F93" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="94" spans="2:10">
@@ -2976,7 +2997,7 @@
         <v>1</v>
       </c>
       <c r="F94" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="95" spans="2:10">
@@ -2993,7 +3014,7 @@
         <v>1</v>
       </c>
       <c r="F95" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="96" spans="2:10">
@@ -3010,7 +3031,7 @@
         <v>1</v>
       </c>
       <c r="I96" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="97" spans="2:10">
@@ -3027,7 +3048,7 @@
         <v>1</v>
       </c>
       <c r="F97" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="98" spans="2:10">
@@ -3044,7 +3065,7 @@
         <v>1</v>
       </c>
       <c r="F98" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="99" spans="2:10">
@@ -3061,7 +3082,7 @@
         <v>1</v>
       </c>
       <c r="F99" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="100" spans="2:10">
@@ -3078,7 +3099,7 @@
         <v>1</v>
       </c>
       <c r="F100" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="101" spans="2:10">
@@ -3100,7 +3121,7 @@
       </c>
       <c r="H101" s="8"/>
       <c r="I101" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J101" s="8" t="s">
         <v>48</v>
@@ -3176,7 +3197,7 @@
         <v>1</v>
       </c>
       <c r="F109" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I109" t="s">
         <v>61</v>
@@ -3196,7 +3217,7 @@
         <v>1</v>
       </c>
       <c r="F110" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="111" spans="2:10">
@@ -3518,7 +3539,7 @@
         <v>50</v>
       </c>
       <c r="F142" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G142">
         <v>270</v>
@@ -3538,7 +3559,7 @@
         <v>1</v>
       </c>
       <c r="F143" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G143">
         <v>270</v>
@@ -3930,7 +3951,7 @@
         <v>1</v>
       </c>
       <c r="F186" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="187" spans="2:6">
@@ -4068,7 +4089,7 @@
       <c r="G201" s="8"/>
       <c r="H201" s="8"/>
       <c r="I201" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J201" s="8" t="s">
         <v>48</v>
@@ -4190,7 +4211,7 @@
         <v>1</v>
       </c>
       <c r="F214" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="215" spans="2:9">
@@ -4321,7 +4342,7 @@
         <v>1</v>
       </c>
       <c r="I227" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="228" spans="2:9">
@@ -4455,7 +4476,7 @@
         <v>1</v>
       </c>
       <c r="F240" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="241" spans="2:6">
@@ -4632,7 +4653,7 @@
         <v>1</v>
       </c>
       <c r="I258" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="259" spans="2:9">
@@ -4956,7 +4977,7 @@
         <v>1</v>
       </c>
       <c r="I294" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="295" spans="2:10">
@@ -4973,7 +4994,7 @@
         <v>1</v>
       </c>
       <c r="I295" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="296" spans="2:10">
@@ -4990,7 +5011,7 @@
         <v>1</v>
       </c>
       <c r="I296" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="297" spans="2:10">
@@ -5007,7 +5028,7 @@
         <v>1</v>
       </c>
       <c r="I297" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="298" spans="2:10">
@@ -5024,7 +5045,7 @@
         <v>1</v>
       </c>
       <c r="I298" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="299" spans="2:10">
@@ -5041,7 +5062,7 @@
         <v>1</v>
       </c>
       <c r="I299" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="300" spans="2:10">
@@ -5058,7 +5079,7 @@
         <v>1</v>
       </c>
       <c r="I300" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="301" spans="2:10">
@@ -5078,7 +5099,7 @@
       <c r="G301" s="8"/>
       <c r="H301" s="8"/>
       <c r="I301" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J301" s="8" t="s">
         <v>48</v>
@@ -5240,7 +5261,7 @@
         <v>1</v>
       </c>
       <c r="F319" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="320" spans="2:6">
@@ -5818,7 +5839,7 @@
         <v>1</v>
       </c>
       <c r="I383" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="384" spans="2:9">
@@ -5835,7 +5856,7 @@
         <v>1</v>
       </c>
       <c r="I384" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="385" spans="2:9">
@@ -5852,7 +5873,7 @@
         <v>1</v>
       </c>
       <c r="I385" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="386" spans="2:9">
@@ -5869,7 +5890,7 @@
         <v>1</v>
       </c>
       <c r="I386" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="387" spans="2:9">
@@ -5886,7 +5907,7 @@
         <v>1</v>
       </c>
       <c r="I387" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="388" spans="2:9">
@@ -5903,7 +5924,7 @@
         <v>1</v>
       </c>
       <c r="I388" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="389" spans="2:9">
@@ -5920,7 +5941,7 @@
         <v>1</v>
       </c>
       <c r="I389" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="390" spans="2:9">
@@ -5937,7 +5958,7 @@
         <v>1</v>
       </c>
       <c r="I390" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="391" spans="2:9">
@@ -6073,7 +6094,7 @@
       <c r="G401" s="8"/>
       <c r="H401" s="8"/>
       <c r="I401" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J401" s="8" t="s">
         <v>48</v>
@@ -6834,7 +6855,7 @@
         <v>1</v>
       </c>
       <c r="I492" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="493" spans="2:9">
@@ -6851,7 +6872,7 @@
         <v>1</v>
       </c>
       <c r="I493" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="494" spans="2:9">
@@ -6868,7 +6889,7 @@
         <v>1</v>
       </c>
       <c r="I494" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="495" spans="2:9">
@@ -6885,7 +6906,7 @@
         <v>1</v>
       </c>
       <c r="I495" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="496" spans="2:9">
@@ -6902,7 +6923,7 @@
         <v>1</v>
       </c>
       <c r="I496" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="497" spans="2:10">
@@ -6919,7 +6940,7 @@
         <v>1</v>
       </c>
       <c r="I497" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="498" spans="2:10">
@@ -6936,7 +6957,7 @@
         <v>1</v>
       </c>
       <c r="I498" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="499" spans="2:10">
@@ -6953,7 +6974,7 @@
         <v>1</v>
       </c>
       <c r="I499" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="500" spans="2:10">
@@ -6970,7 +6991,7 @@
         <v>1</v>
       </c>
       <c r="I500" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="501" spans="2:10">
@@ -6990,7 +7011,7 @@
       <c r="G501" s="8"/>
       <c r="H501" s="8"/>
       <c r="I501" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J501" s="8" t="s">
         <v>48</v>
@@ -7312,7 +7333,7 @@
       </c>
       <c r="H519" s="8"/>
       <c r="I519" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J519" s="8" t="s">
         <v>32</v>

--- a/other/ごいぱちステージ草案(ネタバレ注意（）).xlsx
+++ b/other/ごいぱちステージ草案(ネタバレ注意（）).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sakos\Desktop\DDDDD\other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{280D7221-28F8-467F-8C53-66EFB52F85F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25585BA5-D02E-436F-A22F-256069C5ECF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2196" yWindow="3228" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -709,10 +709,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>〇ざ〇</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>〇ん〇ん</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -829,6 +825,10 @@
     <rPh sb="2" eb="3">
       <t>オン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇ぞ〇</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1231,8 +1231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:J520"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -2045,7 +2045,7 @@
         <v>1</v>
       </c>
       <c r="F40" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G40">
         <v>180</v>
@@ -2142,7 +2142,7 @@
         <v>1</v>
       </c>
       <c r="F45" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="46" spans="2:9">
@@ -2196,7 +2196,7 @@
         <v>1</v>
       </c>
       <c r="F48" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G48">
         <v>200</v>
@@ -2216,7 +2216,7 @@
         <v>1</v>
       </c>
       <c r="F49" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="50" spans="2:9">
@@ -2233,7 +2233,7 @@
         <v>1</v>
       </c>
       <c r="F50" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="51" spans="2:9">
@@ -2253,7 +2253,7 @@
         <v>300</v>
       </c>
       <c r="I51" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="52" spans="2:9">
@@ -2338,7 +2338,7 @@
         <v>1</v>
       </c>
       <c r="F56" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="57" spans="2:9">
@@ -2355,7 +2355,7 @@
         <v>1</v>
       </c>
       <c r="F57" t="s">
-        <v>125</v>
+        <v>154</v>
       </c>
     </row>
     <row r="58" spans="2:9">
@@ -2389,7 +2389,7 @@
         <v>1</v>
       </c>
       <c r="F59" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="60" spans="2:9">
@@ -2406,7 +2406,7 @@
         <v>1</v>
       </c>
       <c r="F60" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="61" spans="2:9">
@@ -2423,7 +2423,7 @@
         <v>1</v>
       </c>
       <c r="F61" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="62" spans="2:9">
@@ -2457,7 +2457,7 @@
         <v>1</v>
       </c>
       <c r="F63" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="64" spans="2:9">
@@ -2474,7 +2474,7 @@
         <v>1</v>
       </c>
       <c r="F64" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="65" spans="2:9">
@@ -2491,7 +2491,7 @@
         <v>1</v>
       </c>
       <c r="F65" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="66" spans="2:9">
@@ -2508,7 +2508,7 @@
         <v>1</v>
       </c>
       <c r="F66" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="67" spans="2:9">
@@ -2525,7 +2525,7 @@
         <v>1</v>
       </c>
       <c r="F67" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="68" spans="2:9">
@@ -2627,7 +2627,7 @@
         <v>1</v>
       </c>
       <c r="F73" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="74" spans="2:9">
@@ -2644,7 +2644,7 @@
         <v>1</v>
       </c>
       <c r="F74" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="75" spans="2:9">
@@ -2661,7 +2661,7 @@
         <v>1</v>
       </c>
       <c r="F75" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="76" spans="2:9">
@@ -2678,7 +2678,7 @@
         <v>1</v>
       </c>
       <c r="F76" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="77" spans="2:9">
@@ -2712,7 +2712,7 @@
         <v>1</v>
       </c>
       <c r="F78" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="79" spans="2:9">
@@ -2766,7 +2766,7 @@
         <v>1</v>
       </c>
       <c r="F81" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="82" spans="2:10">
@@ -2783,7 +2783,7 @@
         <v>1</v>
       </c>
       <c r="F82" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="83" spans="2:10">
@@ -2800,7 +2800,7 @@
         <v>1</v>
       </c>
       <c r="F83" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="84" spans="2:10">
@@ -2817,7 +2817,7 @@
         <v>1</v>
       </c>
       <c r="F84" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="85" spans="2:10">
@@ -2885,7 +2885,7 @@
         <v>1</v>
       </c>
       <c r="F88" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="89" spans="2:10">
@@ -2902,7 +2902,7 @@
         <v>1</v>
       </c>
       <c r="F89" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="90" spans="2:10">
@@ -2919,7 +2919,7 @@
         <v>50</v>
       </c>
       <c r="F90" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="91" spans="2:10">
@@ -2936,7 +2936,7 @@
         <v>1</v>
       </c>
       <c r="F91" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="92" spans="2:10">
@@ -4476,7 +4476,7 @@
         <v>1</v>
       </c>
       <c r="F240" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="241" spans="2:6">

--- a/other/ごいぱちステージ草案(ネタバレ注意（）).xlsx
+++ b/other/ごいぱちステージ草案(ネタバレ注意（）).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sakos\Desktop\DDDDD\other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25585BA5-D02E-436F-A22F-256069C5ECF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA1865E2-4B35-4973-99CB-92594C35A184}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2196" yWindow="3228" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1824" yWindow="2364" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="154">
   <si>
     <t>モード</t>
     <phoneticPr fontId="1"/>
@@ -654,13 +654,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>濁音</t>
-    <rPh sb="0" eb="2">
-      <t>ダクオン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>〇つ〇</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -786,10 +779,6 @@
   </si>
   <si>
     <t>から〇〇〇</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>えん〇</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -829,6 +818,10 @@
   </si>
   <si>
     <t>〇ぞ〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇んと</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1231,8 +1224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:J520"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F58" sqref="F58"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I80" sqref="I80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -2045,7 +2038,7 @@
         <v>1</v>
       </c>
       <c r="F40" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G40">
         <v>180</v>
@@ -2142,7 +2135,7 @@
         <v>1</v>
       </c>
       <c r="F45" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="46" spans="2:9">
@@ -2176,7 +2169,7 @@
         <v>1</v>
       </c>
       <c r="F47" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G47">
         <v>200</v>
@@ -2196,7 +2189,7 @@
         <v>1</v>
       </c>
       <c r="F48" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G48">
         <v>200</v>
@@ -2216,7 +2209,7 @@
         <v>1</v>
       </c>
       <c r="F49" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="50" spans="2:9">
@@ -2233,7 +2226,7 @@
         <v>1</v>
       </c>
       <c r="F50" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="51" spans="2:9">
@@ -2253,7 +2246,7 @@
         <v>300</v>
       </c>
       <c r="I51" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="52" spans="2:9">
@@ -2270,7 +2263,7 @@
         <v>1</v>
       </c>
       <c r="F52" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="53" spans="2:9">
@@ -2287,7 +2280,7 @@
         <v>1</v>
       </c>
       <c r="F53" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="54" spans="2:9">
@@ -2304,7 +2297,7 @@
         <v>1</v>
       </c>
       <c r="F54" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="55" spans="2:9">
@@ -2321,7 +2314,7 @@
         <v>1</v>
       </c>
       <c r="F55" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="56" spans="2:9">
@@ -2338,7 +2331,7 @@
         <v>1</v>
       </c>
       <c r="F56" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="57" spans="2:9">
@@ -2355,7 +2348,7 @@
         <v>1</v>
       </c>
       <c r="F57" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="58" spans="2:9">
@@ -2389,7 +2382,7 @@
         <v>1</v>
       </c>
       <c r="F59" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="60" spans="2:9">
@@ -2406,7 +2399,7 @@
         <v>1</v>
       </c>
       <c r="F60" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="61" spans="2:9">
@@ -2423,7 +2416,7 @@
         <v>1</v>
       </c>
       <c r="F61" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="62" spans="2:9">
@@ -2457,7 +2450,7 @@
         <v>1</v>
       </c>
       <c r="F63" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="64" spans="2:9">
@@ -2474,7 +2467,7 @@
         <v>1</v>
       </c>
       <c r="F64" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="65" spans="2:9">
@@ -2491,7 +2484,7 @@
         <v>1</v>
       </c>
       <c r="F65" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="66" spans="2:9">
@@ -2508,7 +2501,7 @@
         <v>1</v>
       </c>
       <c r="F66" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="67" spans="2:9">
@@ -2525,7 +2518,7 @@
         <v>1</v>
       </c>
       <c r="F67" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="68" spans="2:9">
@@ -2627,7 +2620,7 @@
         <v>1</v>
       </c>
       <c r="F73" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="74" spans="2:9">
@@ -2644,7 +2637,7 @@
         <v>1</v>
       </c>
       <c r="F74" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="75" spans="2:9">
@@ -2655,13 +2648,13 @@
         <v>13</v>
       </c>
       <c r="D75">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
         <v>1</v>
       </c>
       <c r="F75" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="76" spans="2:9">
@@ -2678,7 +2671,7 @@
         <v>1</v>
       </c>
       <c r="F76" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="77" spans="2:9">
@@ -2712,7 +2705,7 @@
         <v>1</v>
       </c>
       <c r="F78" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="79" spans="2:9">
@@ -2729,7 +2722,7 @@
         <v>1</v>
       </c>
       <c r="I79" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="80" spans="2:9">
@@ -2766,7 +2759,7 @@
         <v>1</v>
       </c>
       <c r="F81" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="82" spans="2:10">
@@ -2783,7 +2776,7 @@
         <v>1</v>
       </c>
       <c r="F82" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="83" spans="2:10">
@@ -2800,7 +2793,7 @@
         <v>1</v>
       </c>
       <c r="F83" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="84" spans="2:10">
@@ -2817,7 +2810,7 @@
         <v>1</v>
       </c>
       <c r="F84" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="85" spans="2:10">
@@ -2848,7 +2841,7 @@
         <v>1</v>
       </c>
       <c r="F86" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="87" spans="2:10">
@@ -2885,7 +2878,7 @@
         <v>1</v>
       </c>
       <c r="F88" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="89" spans="2:10">
@@ -2902,7 +2895,7 @@
         <v>1</v>
       </c>
       <c r="F89" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="90" spans="2:10">
@@ -2919,7 +2912,7 @@
         <v>50</v>
       </c>
       <c r="F90" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="91" spans="2:10">
@@ -2936,7 +2929,7 @@
         <v>1</v>
       </c>
       <c r="F91" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="92" spans="2:10">
@@ -2980,7 +2973,7 @@
         <v>1</v>
       </c>
       <c r="F93" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="94" spans="2:10">
@@ -3014,7 +3007,7 @@
         <v>1</v>
       </c>
       <c r="F95" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="96" spans="2:10">
@@ -3048,7 +3041,7 @@
         <v>1</v>
       </c>
       <c r="F97" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="98" spans="2:10">
@@ -3082,7 +3075,7 @@
         <v>1</v>
       </c>
       <c r="F99" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="100" spans="2:10">
@@ -3099,7 +3092,7 @@
         <v>1</v>
       </c>
       <c r="F100" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="101" spans="2:10">
@@ -3951,7 +3944,7 @@
         <v>1</v>
       </c>
       <c r="F186" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="187" spans="2:6">
@@ -4476,7 +4469,7 @@
         <v>1</v>
       </c>
       <c r="F240" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="241" spans="2:6">

--- a/other/ごいぱちステージ草案(ネタバレ注意（）).xlsx
+++ b/other/ごいぱちステージ草案(ネタバレ注意（）).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sakos\Desktop\DDDDD\other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA1865E2-4B35-4973-99CB-92594C35A184}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A136C102-3D3E-44E6-946E-ABE1778AE2C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1824" yWindow="2364" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1524" yWindow="2904" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1224,8 +1224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:J520"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I80" sqref="I80"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I94" sqref="I94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>

--- a/other/ごいぱちステージ草案(ネタバレ注意（）).xlsx
+++ b/other/ごいぱちステージ草案(ネタバレ注意（）).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sakos\Desktop\DDDDD\other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A136C102-3D3E-44E6-946E-ABE1778AE2C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22956280-4A94-4139-A378-111E1CBF33DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1524" yWindow="2904" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1656" yWindow="1212" windowWidth="17280" windowHeight="11016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -573,10 +573,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>〇〇もと</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>うち〇〇〇</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -822,6 +818,10 @@
   </si>
   <si>
     <t>〇んと</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇〇みつ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1224,8 +1224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:J520"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I94" sqref="I94"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="J102" sqref="J102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1323,7 +1323,7 @@
         <v>200</v>
       </c>
       <c r="I5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="2:10">
@@ -1901,7 +1901,7 @@
         <v>150</v>
       </c>
       <c r="I33" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34" spans="2:9">
@@ -2001,7 +2001,7 @@
         <v>120</v>
       </c>
       <c r="I38" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="39" spans="2:9">
@@ -2038,7 +2038,7 @@
         <v>1</v>
       </c>
       <c r="F40" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G40">
         <v>180</v>
@@ -2078,7 +2078,7 @@
         <v>1</v>
       </c>
       <c r="F42" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G42">
         <v>150</v>
@@ -2098,7 +2098,7 @@
         <v>1</v>
       </c>
       <c r="F43" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G43">
         <v>180</v>
@@ -2135,7 +2135,7 @@
         <v>1</v>
       </c>
       <c r="F45" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="46" spans="2:9">
@@ -2169,7 +2169,7 @@
         <v>1</v>
       </c>
       <c r="F47" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G47">
         <v>200</v>
@@ -2189,7 +2189,7 @@
         <v>1</v>
       </c>
       <c r="F48" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G48">
         <v>200</v>
@@ -2209,7 +2209,7 @@
         <v>1</v>
       </c>
       <c r="F49" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="50" spans="2:9">
@@ -2226,7 +2226,7 @@
         <v>1</v>
       </c>
       <c r="F50" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="51" spans="2:9">
@@ -2246,7 +2246,7 @@
         <v>300</v>
       </c>
       <c r="I51" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="52" spans="2:9">
@@ -2263,7 +2263,7 @@
         <v>1</v>
       </c>
       <c r="F52" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="53" spans="2:9">
@@ -2280,7 +2280,7 @@
         <v>1</v>
       </c>
       <c r="F53" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="54" spans="2:9">
@@ -2297,7 +2297,7 @@
         <v>1</v>
       </c>
       <c r="F54" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="55" spans="2:9">
@@ -2314,7 +2314,7 @@
         <v>1</v>
       </c>
       <c r="F55" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="56" spans="2:9">
@@ -2331,7 +2331,7 @@
         <v>1</v>
       </c>
       <c r="F56" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="57" spans="2:9">
@@ -2348,7 +2348,7 @@
         <v>1</v>
       </c>
       <c r="F57" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="58" spans="2:9">
@@ -2382,7 +2382,7 @@
         <v>1</v>
       </c>
       <c r="F59" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="60" spans="2:9">
@@ -2399,7 +2399,7 @@
         <v>1</v>
       </c>
       <c r="F60" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="61" spans="2:9">
@@ -2416,7 +2416,7 @@
         <v>1</v>
       </c>
       <c r="F61" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="62" spans="2:9">
@@ -2433,7 +2433,7 @@
         <v>1</v>
       </c>
       <c r="I62" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="63" spans="2:9">
@@ -2450,7 +2450,7 @@
         <v>1</v>
       </c>
       <c r="F63" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="64" spans="2:9">
@@ -2467,7 +2467,7 @@
         <v>1</v>
       </c>
       <c r="F64" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="65" spans="2:9">
@@ -2484,7 +2484,7 @@
         <v>1</v>
       </c>
       <c r="F65" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="66" spans="2:9">
@@ -2501,7 +2501,7 @@
         <v>1</v>
       </c>
       <c r="F66" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="67" spans="2:9">
@@ -2518,7 +2518,7 @@
         <v>1</v>
       </c>
       <c r="F67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="68" spans="2:9">
@@ -2552,7 +2552,7 @@
         <v>1</v>
       </c>
       <c r="F69" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="70" spans="2:9">
@@ -2569,7 +2569,7 @@
         <v>1</v>
       </c>
       <c r="F70" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="71" spans="2:9">
@@ -2620,7 +2620,7 @@
         <v>1</v>
       </c>
       <c r="F73" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="74" spans="2:9">
@@ -2637,7 +2637,7 @@
         <v>1</v>
       </c>
       <c r="F74" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="75" spans="2:9">
@@ -2654,7 +2654,7 @@
         <v>1</v>
       </c>
       <c r="F75" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="76" spans="2:9">
@@ -2671,7 +2671,7 @@
         <v>1</v>
       </c>
       <c r="F76" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="77" spans="2:9">
@@ -2705,7 +2705,7 @@
         <v>1</v>
       </c>
       <c r="F78" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="79" spans="2:9">
@@ -2722,7 +2722,7 @@
         <v>1</v>
       </c>
       <c r="I79" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="80" spans="2:9">
@@ -2759,7 +2759,7 @@
         <v>1</v>
       </c>
       <c r="F81" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="82" spans="2:10">
@@ -2776,7 +2776,7 @@
         <v>1</v>
       </c>
       <c r="F82" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="83" spans="2:10">
@@ -2793,7 +2793,7 @@
         <v>1</v>
       </c>
       <c r="F83" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="84" spans="2:10">
@@ -2810,7 +2810,7 @@
         <v>1</v>
       </c>
       <c r="F84" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="85" spans="2:10">
@@ -2841,7 +2841,7 @@
         <v>1</v>
       </c>
       <c r="F86" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="87" spans="2:10">
@@ -2858,7 +2858,7 @@
         <v>1</v>
       </c>
       <c r="F87" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G87">
         <v>240</v>
@@ -2878,7 +2878,7 @@
         <v>1</v>
       </c>
       <c r="F88" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="89" spans="2:10">
@@ -2895,7 +2895,7 @@
         <v>1</v>
       </c>
       <c r="F89" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="90" spans="2:10">
@@ -2912,7 +2912,7 @@
         <v>50</v>
       </c>
       <c r="F90" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="91" spans="2:10">
@@ -2929,7 +2929,7 @@
         <v>1</v>
       </c>
       <c r="F91" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="92" spans="2:10">
@@ -2973,7 +2973,7 @@
         <v>1</v>
       </c>
       <c r="F93" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="94" spans="2:10">
@@ -2990,7 +2990,7 @@
         <v>1</v>
       </c>
       <c r="F94" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="95" spans="2:10">
@@ -3007,7 +3007,7 @@
         <v>1</v>
       </c>
       <c r="F95" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="96" spans="2:10">
@@ -3024,7 +3024,7 @@
         <v>1</v>
       </c>
       <c r="I96" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="97" spans="2:10">
@@ -3041,7 +3041,7 @@
         <v>1</v>
       </c>
       <c r="F97" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="98" spans="2:10">
@@ -3058,7 +3058,7 @@
         <v>1</v>
       </c>
       <c r="F98" t="s">
-        <v>97</v>
+        <v>153</v>
       </c>
     </row>
     <row r="99" spans="2:10">
@@ -3075,7 +3075,7 @@
         <v>1</v>
       </c>
       <c r="F99" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="100" spans="2:10">
@@ -3092,7 +3092,7 @@
         <v>1</v>
       </c>
       <c r="F100" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="101" spans="2:10">
@@ -3114,7 +3114,7 @@
       </c>
       <c r="H101" s="8"/>
       <c r="I101" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J101" s="8" t="s">
         <v>48</v>
@@ -3190,7 +3190,7 @@
         <v>1</v>
       </c>
       <c r="F109" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I109" t="s">
         <v>61</v>
@@ -3944,7 +3944,7 @@
         <v>1</v>
       </c>
       <c r="F186" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="187" spans="2:6">
@@ -4082,7 +4082,7 @@
       <c r="G201" s="8"/>
       <c r="H201" s="8"/>
       <c r="I201" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J201" s="8" t="s">
         <v>48</v>
@@ -4469,7 +4469,7 @@
         <v>1</v>
       </c>
       <c r="F240" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="241" spans="2:6">
@@ -4970,7 +4970,7 @@
         <v>1</v>
       </c>
       <c r="I294" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="295" spans="2:10">
@@ -4987,7 +4987,7 @@
         <v>1</v>
       </c>
       <c r="I295" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="296" spans="2:10">
@@ -5004,7 +5004,7 @@
         <v>1</v>
       </c>
       <c r="I296" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="297" spans="2:10">
@@ -5021,7 +5021,7 @@
         <v>1</v>
       </c>
       <c r="I297" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="298" spans="2:10">
@@ -5038,7 +5038,7 @@
         <v>1</v>
       </c>
       <c r="I298" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="299" spans="2:10">
@@ -5055,7 +5055,7 @@
         <v>1</v>
       </c>
       <c r="I299" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="300" spans="2:10">
@@ -5072,7 +5072,7 @@
         <v>1</v>
       </c>
       <c r="I300" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="301" spans="2:10">
@@ -5092,7 +5092,7 @@
       <c r="G301" s="8"/>
       <c r="H301" s="8"/>
       <c r="I301" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J301" s="8" t="s">
         <v>48</v>
@@ -5254,7 +5254,7 @@
         <v>1</v>
       </c>
       <c r="F319" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="320" spans="2:6">
@@ -5832,7 +5832,7 @@
         <v>1</v>
       </c>
       <c r="I383" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="384" spans="2:9">
@@ -5849,7 +5849,7 @@
         <v>1</v>
       </c>
       <c r="I384" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="385" spans="2:9">
@@ -5866,7 +5866,7 @@
         <v>1</v>
       </c>
       <c r="I385" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="386" spans="2:9">
@@ -5883,7 +5883,7 @@
         <v>1</v>
       </c>
       <c r="I386" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="387" spans="2:9">
@@ -5900,7 +5900,7 @@
         <v>1</v>
       </c>
       <c r="I387" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="388" spans="2:9">
@@ -5917,7 +5917,7 @@
         <v>1</v>
       </c>
       <c r="I388" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="389" spans="2:9">
@@ -5934,7 +5934,7 @@
         <v>1</v>
       </c>
       <c r="I389" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="390" spans="2:9">
@@ -5951,7 +5951,7 @@
         <v>1</v>
       </c>
       <c r="I390" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="391" spans="2:9">
@@ -6087,7 +6087,7 @@
       <c r="G401" s="8"/>
       <c r="H401" s="8"/>
       <c r="I401" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J401" s="8" t="s">
         <v>48</v>
@@ -6848,7 +6848,7 @@
         <v>1</v>
       </c>
       <c r="I492" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="493" spans="2:9">
@@ -6865,7 +6865,7 @@
         <v>1</v>
       </c>
       <c r="I493" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="494" spans="2:9">
@@ -6882,7 +6882,7 @@
         <v>1</v>
       </c>
       <c r="I494" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="495" spans="2:9">
@@ -6899,7 +6899,7 @@
         <v>1</v>
       </c>
       <c r="I495" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="496" spans="2:9">
@@ -6916,7 +6916,7 @@
         <v>1</v>
       </c>
       <c r="I496" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="497" spans="2:10">
@@ -6933,7 +6933,7 @@
         <v>1</v>
       </c>
       <c r="I497" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="498" spans="2:10">
@@ -6950,7 +6950,7 @@
         <v>1</v>
       </c>
       <c r="I498" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="499" spans="2:10">
@@ -6967,7 +6967,7 @@
         <v>1</v>
       </c>
       <c r="I499" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="500" spans="2:10">
@@ -6984,7 +6984,7 @@
         <v>1</v>
       </c>
       <c r="I500" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="501" spans="2:10">
@@ -7004,7 +7004,7 @@
       <c r="G501" s="8"/>
       <c r="H501" s="8"/>
       <c r="I501" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J501" s="8" t="s">
         <v>48</v>
@@ -7326,7 +7326,7 @@
       </c>
       <c r="H519" s="8"/>
       <c r="I519" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J519" s="8" t="s">
         <v>32</v>
